--- a/Results/functional.form.xlsx
+++ b/Results/functional.form.xlsx
@@ -23,49 +23,49 @@
     <t xml:space="preserve">PTH24u + Ca24u</t>
   </si>
   <si>
-    <t xml:space="preserve">209.9</t>
+    <t xml:space="preserve">217.5</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">205.7</t>
+    <t xml:space="preserve">212.6</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + dCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">213.7</t>
+    <t xml:space="preserve">223.9</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + dCorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">210.7</t>
+    <t xml:space="preserve">220.8</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + Ca24u</t>
   </si>
   <si>
-    <t xml:space="preserve">194.1</t>
+    <t xml:space="preserve">193.6</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">191.3</t>
+    <t xml:space="preserve">190.5</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + dCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">196.2</t>
+    <t xml:space="preserve">197.5</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + dCorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">194.2</t>
+    <t xml:space="preserve">195.8</t>
   </si>
 </sst>
 </file>
